--- a/biology/Médecine/Ernest_Bazin/Ernest_Bazin.xlsx
+++ b/biology/Médecine/Ernest_Bazin/Ernest_Bazin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Antoine Ernest Bazin ou Antoine Pierre Ernest Bazin (né le 20 février 1807 à Saint-Brice-sous-Forêt et mort à Paris 3e le 14 décembre 1878) est un médecin dermatologue français. Son frère, Antoine Pierre Louis Bazin (1799-1863), est un sinologue réputé.
 </t>
@@ -513,22 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Ernest Bazin est le fils de Pierre-Elisabeth Bazin[1], docteur en médecine, nommé membre du conseil municipal de Saint-Brice le 8 janvier 1801[2] et de Anne Rose Gault[3].Il est le frère d’Antoine Bazin, sinologue, et de Pierre Alphonse Bazin, docteur en médecine, successeur de son père à Saint-Brice[2].
-Activité
-En 1828, il commence à travailler comme interne des hôpitaux et obtient son doctorat à la faculté de Paris le 21 août 1834. En 1836, il devient médecin des hôpitaux, travaille ensuite à l'hôpital Lourcine (1841-1844), puis trois ans à l'hôpital Saint-Antoine. En 1847, il est chef de service à l'hôpital Saint-Louis.
-Maladies éponymes
-La maladie de Bazin ou érythème induré de Bazin.
-Le syndrome d'Alibert-Bazin, forme particulière du mycosis fongoïde, nommé avec le dermatologue Jean-Louis Alibert[4].
-Travaux
-Recherche sur la nature et le traitement de la teigne (1853) Lire en ligne
-Leçons théoriques et cliniques sur la scrofule, considérée en elle-même et dans ses rapports avec la syphilis, la dartre et l'arthritis (1858) Lire en ligne.
-Leçons théoriques et cliniques sur les affections cutanées parasitaires (1858) Lire en ligne
-Leçons théoriques et cliniques sur les syphilides (1859) Lire en ligne
-Leçons théoriques et cliniques sur les affections génériques de la peau (1862) Lire en ligne
-Sépulture
-Sépulture à Suresnes et détail du buste en bronze d'Ernest Bazin par Eugène Delaplanche (1872).
-Il est enterré au cimetière Carnot de Suresnes[5].
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ernest Bazin est le fils de Pierre-Elisabeth Bazin, docteur en médecine, nommé membre du conseil municipal de Saint-Brice le 8 janvier 1801 et de Anne Rose Gault.Il est le frère d’Antoine Bazin, sinologue, et de Pierre Alphonse Bazin, docteur en médecine, successeur de son père à Saint-Brice.
 </t>
         </is>
       </c>
@@ -554,12 +557,166 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Activité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1828, il commence à travailler comme interne des hôpitaux et obtient son doctorat à la faculté de Paris le 21 août 1834. En 1836, il devient médecin des hôpitaux, travaille ensuite à l'hôpital Lourcine (1841-1844), puis trois ans à l'hôpital Saint-Antoine. En 1847, il est chef de service à l'hôpital Saint-Louis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ernest_Bazin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ernest_Bazin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Maladies éponymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La maladie de Bazin ou érythème induré de Bazin.
+Le syndrome d'Alibert-Bazin, forme particulière du mycosis fongoïde, nommé avec le dermatologue Jean-Louis Alibert.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ernest_Bazin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ernest_Bazin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Recherche sur la nature et le traitement de la teigne (1853) Lire en ligne
+Leçons théoriques et cliniques sur la scrofule, considérée en elle-même et dans ses rapports avec la syphilis, la dartre et l'arthritis (1858) Lire en ligne.
+Leçons théoriques et cliniques sur les affections cutanées parasitaires (1858) Lire en ligne
+Leçons théoriques et cliniques sur les syphilides (1859) Lire en ligne
+Leçons théoriques et cliniques sur les affections génériques de la peau (1862) Lire en ligne</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ernest_Bazin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ernest_Bazin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sépulture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sépulture à Suresnes et détail du buste en bronze d'Ernest Bazin par Eugène Delaplanche (1872).
+Il est enterré au cimetière Carnot de Suresnes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ernest_Bazin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ernest_Bazin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur le 9 mai 1873[6].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur le 9 mai 1873.</t>
         </is>
       </c>
     </row>
